--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178622.6876587177</v>
+        <v>177519.7355854134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147076</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516639</v>
+        <v>7423353.428718871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5789215.921356729</v>
+        <v>5580469.110266928</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>193.488871613677</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>52.73509820686093</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>116.0434079398616</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>69.45405731752517</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>271.7430165350573</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.90275338347765</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30.22766558149441</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>79.99302251641404</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>277.3764246262768</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>347.7976845053754</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>84.88457076997979</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>256.534665828223</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.13954148002296</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>190.5684235875036</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>83.18350266509924</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.9758506730704</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.9157018704136</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>374.3891321854045</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2330,13 +2332,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2555,25 +2557,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>54.55340531488847</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>53.0423124191724</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>94.4312367321524</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2804,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>201.2967997072818</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>45.50306732735508</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>347.4636717025288</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.16791248334739</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.1441627534537</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>185.5573750678079</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>403.4239299234998</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>29.10461178738966</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>127.5226293729572</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>267.9601086666781</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.2666242787488</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>165.7592607571354</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>46.26926615534656</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1984.538953263538</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C2" t="n">
-        <v>1546.396480446961</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D2" t="n">
-        <v>1110.486695621405</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>676.7119507797006</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>248.8445211889083</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4361,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y2" t="n">
-        <v>2410.838523748445</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
         <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1113.955041367231</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516127</v>
+        <v>941.3933298504559</v>
       </c>
       <c r="D4" t="n">
-        <v>741.4772326516127</v>
+        <v>775.5153370519786</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>605.7573333027158</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>429.050279264472</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>263.4590042902997</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>123.5568299806742</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1171.796632052941</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.796632052941</v>
+        <v>1045.303485539021</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.796632052941</v>
+        <v>1045.303485539021</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>141.0418768474983</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>801.8819313892766</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1462.721985931055</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>2123.562040472833</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2123.562040472833</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2617.633802811753</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2358.41150012877</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1995.794550062597</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1590.93909547363</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1171.796632052941</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1171.796632052941</v>
+        <v>1483.445958355598</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.993051694572</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.993051694572</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="D8" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4808,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2505.607919770402</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.990969704229</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.135515115262</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.993051694572</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.993051694572</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4960,19 +4962,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K10" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L10" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2538.085451911278</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2292.206005489733</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2013.773004742838</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1726.817496613269</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1454.79109219956</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1209.399337532973</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.301412944565</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C11" t="n">
-        <v>1888.301412944565</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D11" t="n">
-        <v>1452.39162811901</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F11" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862856</v>
@@ -5051,10 +5053,10 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O11" t="n">
         <v>1293.567921177998</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1954.407975719776</v>
       </c>
       <c r="P11" t="n">
         <v>1954.407975719776</v>
@@ -5066,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W11" t="n">
-        <v>2307.443876365254</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X11" t="n">
-        <v>1888.301412944565</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="Y11" t="n">
-        <v>1888.301412944565</v>
+        <v>1350.953175786681</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862856</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K12" t="n">
-        <v>394.9608689238808</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
         <v>53.40121652862856</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T13" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>925.73522355977</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5927507431934</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>487.5927507431934</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>53.81800590148855</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N14" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
@@ -5309,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V14" t="n">
-        <v>2584.318835754681</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W14" t="n">
-        <v>2179.463381165714</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="X14" t="n">
-        <v>1760.320917745024</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1352.034794044678</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5363,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M15" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="N15" t="n">
-        <v>938.6281453713194</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O15" t="n">
-        <v>1599.468199913098</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D16" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E16" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F16" t="n">
-        <v>56.57247054885377</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G16" t="n">
         <v>53.40121652862856</v>
@@ -5434,19 +5436,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.477214236518</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="C17" t="n">
-        <v>573.3347414199409</v>
+        <v>1075.159834655251</v>
       </c>
       <c r="D17" t="n">
-        <v>137.4249565943854</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E17" t="n">
-        <v>137.4249565943854</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>137.4249565943854</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
         <v>53.40121652862856</v>
@@ -5513,25 +5515,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
         <v>2500.906761678371</v>
@@ -5549,16 +5551,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W17" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X17" t="n">
-        <v>1846.062908421772</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1437.776784721425</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="L18" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M18" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N18" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O18" t="n">
         <v>1055.800923465659</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
         <v>53.40121652862856</v>
@@ -5704,19 +5706,19 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1635.30396804745</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C20" t="n">
-        <v>1197.161495230873</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="D20" t="n">
-        <v>1197.161495230873</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="E20" t="n">
-        <v>763.3867503891686</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F20" t="n">
-        <v>763.3867503891686</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>361.9889190124325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>508.1134519085666</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1342.463743866745</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.502351851794</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.502351851794</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N20" t="n">
-        <v>1366.502351851794</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O20" t="n">
-        <v>2268.129561990447</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>3096.439436823843</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>3642.938222782438</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>3383.715920099455</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>3021.098970033281</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W20" t="n">
-        <v>2616.243515444315</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X20" t="n">
-        <v>2197.101052023625</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y20" t="n">
-        <v>1788.814928323279</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>579.0305094469416</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>472.5740482835839</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>377.4837594301371</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>283.3633447570908</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>199.9795063732524</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5944166394363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>98.92243761610636</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>423.4807625823187</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.925747840118</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1736.098525934458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1672.643088382841</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1542.464444713442</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1366.127897713411</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1167.01037977541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>981.687625508604</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>826.8201897474839</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.3344105267047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.35480153258</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C22" t="n">
-        <v>750.793090015805</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D22" t="n">
-        <v>584.9150972173277</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E22" t="n">
-        <v>415.1570934680649</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4500394298211</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2671.279205315764</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.399758894219</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.966758147325</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V22" t="n">
-        <v>1860.011250017755</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.984845604047</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.593090937459</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.173420251567</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N23" t="n">
-        <v>3572.656769371182</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O23" t="n">
-        <v>4552.836435941488</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1416.332668825484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C26" t="n">
-        <v>978.1901960089076</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D26" t="n">
-        <v>542.280411183352</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5056663416472</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M26" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N26" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2616.482733078728</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2616.482733078728</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2357.260430395746</v>
       </c>
       <c r="V26" t="n">
-        <v>2670.060826431428</v>
+        <v>1994.643480329572</v>
       </c>
       <c r="W26" t="n">
-        <v>2670.060826431428</v>
+        <v>1589.788025740605</v>
       </c>
       <c r="X26" t="n">
-        <v>2250.918363010739</v>
+        <v>1170.645562319916</v>
       </c>
       <c r="Y26" t="n">
-        <v>1842.632239310392</v>
+        <v>1170.645562319916</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E28" t="n">
-        <v>307.6524407281256</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F28" t="n">
-        <v>307.6524407281256</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0611657539532</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
         <v>53.40121652862856</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.512437976118</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="C29" t="n">
-        <v>1351.369965159541</v>
+        <v>1407.920435605196</v>
       </c>
       <c r="D29" t="n">
-        <v>915.4601803339856</v>
+        <v>1407.920435605196</v>
       </c>
       <c r="E29" t="n">
-        <v>481.6854354922808</v>
+        <v>974.1456907634906</v>
       </c>
       <c r="F29" t="n">
-        <v>53.81800590148855</v>
+        <v>546.2782611726984</v>
       </c>
       <c r="G29" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
         <v>53.81800590148855</v>
@@ -6461,28 +6463,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M29" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6500,13 +6502,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W29" t="n">
-        <v>2624.098132161372</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X29" t="n">
-        <v>2624.098132161372</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.812008461025</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="30">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
         <v>53.40121652862856</v>
@@ -6698,52 +6700,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M32" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2634.537682508855</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2634.537682508855</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2634.537682508855</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V32" t="n">
-        <v>2634.537682508855</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.537682508855</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X32" t="n">
-        <v>2215.395219088166</v>
+        <v>1503.188731922625</v>
       </c>
       <c r="Y32" t="n">
-        <v>2215.395219088166</v>
+        <v>1094.902608222279</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
         <v>1058.729261281022</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
         <v>218.9924915028009</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C35" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D35" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H35" t="n">
         <v>53.40121652862856</v>
@@ -6938,22 +6940,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
         <v>2500.906761678371</v>
@@ -6962,25 +6964,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>2250.918363010739</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y35" t="n">
-        <v>2215.395219088166</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7013,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J36" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L36" t="n">
         <v>1058.729261281022</v>
@@ -7172,28 +7174,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>801.8819313892766</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8819313892766</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N38" t="n">
-        <v>801.8819313892766</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O38" t="n">
-        <v>1462.721985931055</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P38" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>1964.569699866108</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W38" t="n">
-        <v>1559.714245277141</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.215326162495</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y38" t="n">
-        <v>743.9292024621484</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
         <v>1599.468199913098</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>933.2958513705998</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>760.7341398538248</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8561470553475</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>425.0981433060848</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>248.391089267841</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>82.79981429366862</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
         <v>53.40121652862856</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>744.3459918350084</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C41" t="n">
-        <v>744.3459918350084</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D41" t="n">
-        <v>744.3459918350084</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="E41" t="n">
-        <v>744.3459918350084</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F41" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
         <v>53.40121652862856</v>
@@ -7415,16 +7417,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M41" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N41" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O41" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
         <v>1954.407975719776</v>
@@ -7439,22 +7441,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>1423.298891966343</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X41" t="n">
-        <v>1152.632115535355</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y41" t="n">
-        <v>744.3459918350084</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>826.9659278567121</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>654.4042163399371</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>488.5262235414597</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>318.768219792197</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>142.0611657539532</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
         <v>53.40121652862856</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="C44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="D44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="E44" t="n">
-        <v>724.8884439079882</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F44" t="n">
-        <v>724.8884439079882</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G44" t="n">
-        <v>323.4906125312521</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L44" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M44" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N44" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O44" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.8884439079882</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X46" t="n">
-        <v>368.4973157021125</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.0776450162207</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>566.3319231075541</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>20.13097499434639</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8152,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>345.0097498941942</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6822035600078</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="L18" t="n">
         <v>667.515206607857</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>667.515206607857</v>
@@ -9401,28 +9403,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>24.28142220712039</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>565.8642197954468</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P29" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P32" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,16 +10588,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O35" t="n">
         <v>667.515206607857</v>
@@ -10604,7 +10606,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11063,19 +11065,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M41" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>203.8949814492918</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22601,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22613,7 +22615,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>351.4681642564822</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.31929241554624</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22784,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>157.6939808582304</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>165.9638014722141</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>391.8089091985643</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23072,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>176.6370571397392</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23188,10 +23190,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>26.99333424003467</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0605727670109</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>67.153354281107</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>274.1062097955319</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>144.2722342148541</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>240.9822633897963</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>314.2003503978695</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.0607241069883</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>267.8453462179973</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24023,7 +24025,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>47.64744259465414</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>369.0353499799959</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>29.77304265882896</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.62918697961771</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>196.0870533556869</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>355.3038327157219</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>74.57290307752987</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.64744259465397</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y35" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>236.4791997122508</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>11.52710886298263</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.3985407791396</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25634,19 +25636,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>301.9143680203306</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>146.9909301198043</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63380825304841</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>263.6777366361524</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>354.5376338877305</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589826.666034878</v>
+        <v>482609.1657342629</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751841.791700832</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482609.1657342628</v>
+        <v>482609.1657342629</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343064.7809208994</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="C2" t="n">
+        <v>143731.2720946097</v>
+      </c>
+      <c r="D2" t="n">
         <v>143731.2720946098</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143731.2720946097</v>
       </c>
       <c r="E2" t="n">
         <v>143731.2720946097</v>
@@ -26329,16 +26331,16 @@
         <v>143731.2720946097</v>
       </c>
       <c r="H2" t="n">
-        <v>175662.9236320715</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="I2" t="n">
-        <v>223914.4732583747</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="J2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="K2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="L2" t="n">
         <v>143731.2720946097</v>
@@ -26350,10 +26352,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="O2" t="n">
+        <v>143731.2720946098</v>
+      </c>
+      <c r="P2" t="n">
         <v>143731.2720946097</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102171.9869277625</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781397</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="C4" t="n">
         <v>35023.37484795161</v>
       </c>
       <c r="D4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="E4" t="n">
         <v>35023.37484795161</v>
@@ -26430,34 +26432,34 @@
         <v>35023.37484795161</v>
       </c>
       <c r="G4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="I4" t="n">
         <v>35023.37484795162</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42804.24386144332</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="K4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="M4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="N4" t="n">
         <v>35023.37484795162</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35023.37484795162</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35023.37484795162</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35023.37484795161</v>
       </c>
       <c r="O4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="P4" t="n">
-        <v>24896.51517712573</v>
+        <v>35023.37484795162</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26485,10 +26487,10 @@
         <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>55372.66098629306</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
         <v>40584.9245617577</v>
@@ -26509,7 +26511,7 @@
         <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189204.3258991445</v>
+        <v>-189204.3258991444</v>
       </c>
       <c r="C6" t="n">
-        <v>34495.37268490046</v>
+        <v>34495.3726849004</v>
       </c>
       <c r="D6" t="n">
-        <v>34495.37268490043</v>
+        <v>34495.37268490045</v>
       </c>
       <c r="E6" t="n">
         <v>68122.97268490042</v>
@@ -26534,22 +26536,22 @@
         <v>68122.97268490039</v>
       </c>
       <c r="G6" t="n">
+        <v>68122.97268490042</v>
+      </c>
+      <c r="H6" t="n">
         <v>68122.97268490039</v>
       </c>
-      <c r="H6" t="n">
-        <v>11863.2494263177</v>
-      </c>
       <c r="I6" t="n">
-        <v>-6098.457992483221</v>
+        <v>68122.97268490042</v>
       </c>
       <c r="J6" t="n">
-        <v>53269.46639708641</v>
+        <v>-106528.3760328057</v>
       </c>
       <c r="K6" t="n">
+        <v>68122.97268490045</v>
+      </c>
+      <c r="L6" t="n">
         <v>68122.97268490042</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68122.97268490039</v>
       </c>
       <c r="M6" t="n">
         <v>68122.97268490042</v>
@@ -26558,10 +26560,10 @@
         <v>68122.97268490042</v>
       </c>
       <c r="O6" t="n">
+        <v>68122.97268490045</v>
+      </c>
+      <c r="P6" t="n">
         <v>68122.97268490042</v>
-      </c>
-      <c r="P6" t="n">
-        <v>51478.28361341442</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26805,10 +26807,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>910.7345556956095</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
         <v>667.515206607857</v>
@@ -26829,7 +26831,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096869</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>566.3319231075541</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>20.13097499434639</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34872,7 +34874,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35176,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>345.0097498941942</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6822035600078</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="L18" t="n">
         <v>667.515206607857</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>667.515206607857</v>
@@ -36121,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>24.28142220712039</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956095</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
-        <v>565.8642197954468</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P29" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P32" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37306,16 +37308,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O35" t="n">
         <v>667.515206607857</v>
@@ -37324,7 +37326,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37783,19 +37785,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M41" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177519.7355854134</v>
+        <v>173301.5019451286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7423353.428718871</v>
+        <v>7423353.428718866</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5580469.110266928</v>
+        <v>5580469.110266927</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>174.670776266081</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.73509820686093</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.5392963407816</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>69.45405731752517</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>271.7430165350573</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>239.3379324077142</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>141.724627601166</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.22766558149441</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>185.8142363615786</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S10" t="n">
-        <v>130.6556207749486</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>139.2479228914114</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>347.7976845053754</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>90.065713538588</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>415.8359698580531</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.534665828223</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>190.5684235875036</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>111.7638045301216</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9157018704136</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>47.00597680093367</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>211.3575769118389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.0423124191724</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>201.2967997072818</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>377.6404677245836</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>347.4636717025288</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>64.3236978779826</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3082,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>115.6505484674194</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>185.557375067808</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.5573750678079</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>40.22029148735686</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>348.7149878983881</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>127.5226293729572</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>165.7592607571354</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>185.5573750678079</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.493479979994</v>
+        <v>1531.756031303049</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.351007163417</v>
+        <v>1093.613558486472</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>657.7037736609168</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>657.7037736609168</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>229.8363440701245</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>229.8363440701245</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="Y2" t="n">
-        <v>2616.793050464902</v>
+        <v>1958.055601787957</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.955041367231</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>941.3933298504559</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>775.5153370519786</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>605.7573333027158</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>429.050279264472</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>263.4590042902997</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>123.5568299806742</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262988</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.76646671971</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>1178.687606037187</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.445958355598</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>1045.303485539021</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.303485539021</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2208.238112023947</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.445958355598</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>767.4178585721221</v>
       </c>
       <c r="E7" t="n">
         <v>624.2616690759949</v>
@@ -4737,7 +4737,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.6854354922808</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="C8" t="n">
-        <v>481.6854354922808</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>481.6854354922808</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>2178.650577648325</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>2178.650577648325</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>790.1610481280939</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5993366113188</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7213438128414</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S10" t="n">
-        <v>2538.085451911278</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2292.206005489733</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2013.773004742838</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.817496613269</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1454.79109219956</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.399337532973</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>981.979666847081</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1350.953175786681</v>
+        <v>595.8703048453069</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>595.8703048453069</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>595.8703048453069</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194208</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862856</v>
@@ -5047,13 +5047,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2107.11942280532</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>1702.263968216353</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X11" t="n">
-        <v>1350.953175786681</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y11" t="n">
-        <v>1350.953175786681</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>968.896903337504</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348376</v>
+        <v>796.3351918207289</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862856</v>
@@ -5211,7 +5211,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5226,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U13" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W13" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.095648603258</v>
+        <v>874.8353810953173</v>
       </c>
       <c r="C14" t="n">
-        <v>1350.953175786681</v>
+        <v>874.8353810953173</v>
       </c>
       <c r="D14" t="n">
-        <v>915.0433909611256</v>
+        <v>874.8353810953173</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194208</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G14" t="n">
         <v>53.40121652862856</v>
@@ -5278,52 +5278,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M14" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.221573682271</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W14" t="n">
-        <v>1789.095648603258</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X14" t="n">
-        <v>1789.095648603258</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y14" t="n">
-        <v>1789.095648603258</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P15" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309879</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817252</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>77.9902918434814</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
         <v>53.40121652862856</v>
@@ -5436,19 +5436,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K16" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652275</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1075.159834655251</v>
+        <v>856.8219343107561</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.159834655251</v>
+        <v>856.8219343107561</v>
       </c>
       <c r="D17" t="n">
-        <v>882.6664774961569</v>
+        <v>856.8219343107561</v>
       </c>
       <c r="E17" t="n">
-        <v>882.6664774961569</v>
+        <v>856.8219343107561</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
         <v>53.40121652862856</v>
@@ -5518,16 +5518,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
@@ -5542,25 +5542,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355598</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y17" t="n">
-        <v>1075.159834655251</v>
+        <v>1283.121504795664</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>394.9608689238808</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
         <v>53.40121652862856</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>648.8602641703436</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C20" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D20" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
         <v>53.40121652862856</v>
@@ -5782,22 +5782,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V20" t="n">
-        <v>2307.443876365254</v>
+        <v>2402.512814657059</v>
       </c>
       <c r="W20" t="n">
-        <v>1902.588421776288</v>
+        <v>1997.657360068092</v>
       </c>
       <c r="X20" t="n">
-        <v>1483.445958355598</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="Y20" t="n">
-        <v>1075.159834655251</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
         <v>53.40121652862856</v>
@@ -5934,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U22" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V22" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W22" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>744.3459918350084</v>
+        <v>1328.851305547497</v>
       </c>
       <c r="C26" t="n">
-        <v>744.3459918350084</v>
+        <v>890.7088327309202</v>
       </c>
       <c r="D26" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E26" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F26" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I26" t="n">
         <v>53.40121652862856</v>
@@ -6232,13 +6232,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
@@ -6253,25 +6253,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2616.482733078728</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2616.482733078728</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2357.260430395746</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V26" t="n">
-        <v>1994.643480329572</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W26" t="n">
-        <v>1589.788025740605</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X26" t="n">
-        <v>1170.645562319916</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y26" t="n">
-        <v>1170.645562319916</v>
+        <v>1542.343807478647</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
         <v>53.40121652862856</v>
@@ -6411,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1846.062908421772</v>
+        <v>1320.808950312733</v>
       </c>
       <c r="C29" t="n">
-        <v>1407.920435605196</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="D29" t="n">
-        <v>1407.920435605196</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E29" t="n">
-        <v>974.1456907634906</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F29" t="n">
-        <v>546.2782611726984</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L29" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M29" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
@@ -6490,25 +6490,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W29" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X29" t="n">
-        <v>1846.062908421772</v>
+        <v>1320.808950312733</v>
       </c>
       <c r="Y29" t="n">
-        <v>1846.062908421772</v>
+        <v>1320.808950312733</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.1364226482442</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>749.5747111314691</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>583.6967183329918</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>413.9387145837291</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>237.2316605454853</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
         <v>53.40121652862856</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2145.748379262989</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1586.766466719711</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>743.9292024621484</v>
+        <v>1680.819852320412</v>
       </c>
       <c r="C32" t="n">
-        <v>743.9292024621484</v>
+        <v>1242.677379503836</v>
       </c>
       <c r="D32" t="n">
-        <v>743.9292024621484</v>
+        <v>1242.677379503836</v>
       </c>
       <c r="E32" t="n">
-        <v>743.9292024621484</v>
+        <v>808.9026346621308</v>
       </c>
       <c r="F32" t="n">
         <v>743.9292024621484</v>
@@ -6703,19 +6703,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>488.6559039815464</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6559039815464</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O32" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P32" t="n">
         <v>1954.407975719776</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W32" t="n">
-        <v>1922.331195343315</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X32" t="n">
-        <v>1503.188731922625</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="Y32" t="n">
-        <v>1094.902608222279</v>
+        <v>2107.11942280532</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I34" t="n">
         <v>53.40121652862856</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>743.9292024621484</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C35" t="n">
-        <v>743.9292024621484</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="D35" t="n">
-        <v>743.9292024621484</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="E35" t="n">
-        <v>743.9292024621484</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G35" t="n">
         <v>342.5313710854123</v>
@@ -6940,16 +6940,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
@@ -6976,13 +6976,13 @@
         <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.64701815018</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X35" t="n">
-        <v>1152.215326162495</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y35" t="n">
-        <v>743.9292024621484</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
         <v>1058.729261281022</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
         <v>53.40121652862856</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>743.9292024621484</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
         <v>53.40121652862856</v>
@@ -7180,19 +7180,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M38" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N38" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O38" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
         <v>2500.906761678371</v>
@@ -7201,25 +7201,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739146</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W38" t="n">
-        <v>1339.64701815018</v>
+        <v>1787.527789497373</v>
       </c>
       <c r="X38" t="n">
-        <v>1339.64701815018</v>
+        <v>1787.527789497373</v>
       </c>
       <c r="Y38" t="n">
-        <v>931.3608944498332</v>
+        <v>1787.527789497373</v>
       </c>
     </row>
     <row r="39">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1011.477214236518</v>
+        <v>927.4534741707607</v>
       </c>
       <c r="C41" t="n">
-        <v>1011.477214236518</v>
+        <v>489.311001354184</v>
       </c>
       <c r="D41" t="n">
-        <v>1011.477214236518</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E41" t="n">
-        <v>882.6664774961569</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G41" t="n">
         <v>53.40121652862856</v>
@@ -7411,19 +7411,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L41" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
@@ -7438,25 +7438,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W41" t="n">
-        <v>2265.205371842461</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X41" t="n">
-        <v>1846.062908421772</v>
+        <v>1687.976959384631</v>
       </c>
       <c r="Y41" t="n">
-        <v>1437.776784721425</v>
+        <v>1279.690835684284</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I43" t="n">
         <v>53.40121652862856</v>
@@ -7596,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1339.64701815018</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.64701815018</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="D44" t="n">
-        <v>1339.64701815018</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="E44" t="n">
-        <v>1172.213421425801</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="F44" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
@@ -7693,7 +7693,7 @@
         <v>1339.64701815018</v>
       </c>
       <c r="Y44" t="n">
-        <v>1339.64701815018</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>233.2795245870976</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>56.57247054885377</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I46" t="n">
         <v>53.40121652862856</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8154,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.515206607857</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>345.0097498941942</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -9880,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>667.515206607857</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10588,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M38" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L41" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>111.5680767451349</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22615,7 +22615,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.4681642564822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>56.36113619101567</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.31929241554624</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>157.6939808582304</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>17.29214724843902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.33579611060415</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.8089091985643</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>229.1368024249038</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23190,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S10" t="n">
-        <v>26.99333424003467</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>290.1890745018763</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>67.153354281107</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.15349933190453</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>13.60102753523466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>144.2722342148541</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>240.9822633897963</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>311.8249507647627</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>267.8453462179973</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24022,13 +24022,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>311.984803764578</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>210.6789978682198</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.77304265882896</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>196.0870533556869</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>37.31057106189883</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>74.57290307752987</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>359.2650574169018</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>315.9001385098805</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>229.3936637186744</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.4791997122508</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>360.5866085557201</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>73.32158688167056</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>301.9143680203306</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>263.6777366361524</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>238.0313802270764</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482609.1657342628</v>
+        <v>482609.1657342629</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482609.1657342629</v>
+        <v>482609.1657342628</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>143731.2720946097</v>
       </c>
       <c r="D2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="E2" t="n">
         <v>143731.2720946097</v>
@@ -26337,10 +26337,10 @@
         <v>143731.2720946097</v>
       </c>
       <c r="J2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="K2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="L2" t="n">
         <v>143731.2720946097</v>
@@ -26352,7 +26352,7 @@
         <v>143731.2720946097</v>
       </c>
       <c r="O2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="P2" t="n">
         <v>143731.2720946097</v>
@@ -26429,7 +26429,7 @@
         <v>35023.37484795161</v>
       </c>
       <c r="F4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="G4" t="n">
         <v>35023.37484795161</v>
@@ -26438,16 +26438,16 @@
         <v>35023.37484795161</v>
       </c>
       <c r="I4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="K4" t="n">
         <v>35023.37484795162</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>35023.37484795162</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35023.37484795161</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35023.37484795161</v>
       </c>
       <c r="M4" t="n">
         <v>35023.37484795161</v>
@@ -26456,7 +26456,7 @@
         <v>35023.37484795162</v>
       </c>
       <c r="O4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="P4" t="n">
         <v>35023.37484795162</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189204.3258991444</v>
+        <v>-189699.2161277257</v>
       </c>
       <c r="C6" t="n">
-        <v>34495.3726849004</v>
+        <v>34000.48245631917</v>
       </c>
       <c r="D6" t="n">
-        <v>34495.37268490045</v>
+        <v>34000.48245631916</v>
       </c>
       <c r="E6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631913</v>
       </c>
       <c r="F6" t="n">
-        <v>68122.97268490039</v>
+        <v>67628.08245631913</v>
       </c>
       <c r="G6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631916</v>
       </c>
       <c r="H6" t="n">
-        <v>68122.97268490039</v>
+        <v>67628.08245631917</v>
       </c>
       <c r="I6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631917</v>
       </c>
       <c r="J6" t="n">
-        <v>-106528.3760328057</v>
+        <v>-107023.266261387</v>
       </c>
       <c r="K6" t="n">
-        <v>68122.97268490045</v>
+        <v>67628.08245631916</v>
       </c>
       <c r="L6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631916</v>
       </c>
       <c r="M6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631917</v>
       </c>
       <c r="N6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631917</v>
       </c>
       <c r="O6" t="n">
-        <v>68122.97268490045</v>
+        <v>67628.08245631916</v>
       </c>
       <c r="P6" t="n">
-        <v>68122.97268490042</v>
+        <v>67628.08245631916</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>667.515206607857</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
         <v>667.515206607857</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>345.0097498941942</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -36600,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>667.515206607857</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P29" t="n">
         <v>667.515206607857</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37308,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>667.515206607857</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M38" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L41" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>667.515206607857</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>640.5448952297625</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
